--- a/Parcel-Test-Features/Report-Delivery/bin/Test_Data/Report Delivery Feature.xlsx
+++ b/Parcel-Test-Features/Report-Delivery/bin/Test_Data/Report Delivery Feature.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Site ID which is open in simplified view</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>Compu@1234</t>
-  </si>
-  <si>
-    <t>mpatel1</t>
-  </si>
-  <si>
-    <t>ManiParcel@123</t>
   </si>
   <si>
     <t xml:space="preserve">Email ID </t>
@@ -98,7 +92,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -113,6 +107,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -396,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,34 +418,32 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>1419524</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
